--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H2">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N2">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q2">
-        <v>166.6302586394647</v>
+        <v>201.3572487630626</v>
       </c>
       <c r="R2">
-        <v>166.6302586394647</v>
+        <v>1812.215238867564</v>
       </c>
       <c r="S2">
-        <v>0.03345977284666173</v>
+        <v>0.03677296031128285</v>
       </c>
       <c r="T2">
-        <v>0.03345977284666173</v>
+        <v>0.03677296031128283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H3">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N3">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q3">
-        <v>2094.056911051014</v>
+        <v>2248.721728104162</v>
       </c>
       <c r="R3">
-        <v>2094.056911051014</v>
+        <v>20238.49555293746</v>
       </c>
       <c r="S3">
-        <v>0.4204918671065093</v>
+        <v>0.4106738414766368</v>
       </c>
       <c r="T3">
-        <v>0.4204918671065093</v>
+        <v>0.4106738414766367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H4">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N4">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q4">
-        <v>243.626315293838</v>
+        <v>262.5165477589339</v>
       </c>
       <c r="R4">
-        <v>243.626315293838</v>
+        <v>2362.648929830405</v>
       </c>
       <c r="S4">
-        <v>0.04892077366835683</v>
+        <v>0.04794220546365115</v>
       </c>
       <c r="T4">
-        <v>0.04892077366835683</v>
+        <v>0.04794220546365113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H5">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N5">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q5">
-        <v>336.7449411010778</v>
+        <v>362.5625315075999</v>
       </c>
       <c r="R5">
-        <v>336.7449411010778</v>
+        <v>3263.0627835684</v>
       </c>
       <c r="S5">
-        <v>0.06761922671490098</v>
+        <v>0.0662131493322874</v>
       </c>
       <c r="T5">
-        <v>0.06761922671490098</v>
+        <v>0.06621314933228738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H6">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N6">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q6">
-        <v>310.4759495017556</v>
+        <v>365.0562968546986</v>
       </c>
       <c r="R6">
-        <v>310.4759495017556</v>
+        <v>3285.506671692287</v>
       </c>
       <c r="S6">
-        <v>0.062344347476275</v>
+        <v>0.06666857437756311</v>
       </c>
       <c r="T6">
-        <v>0.062344347476275</v>
+        <v>0.0666685743775631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H7">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N7">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q7">
-        <v>42.47840781463745</v>
+        <v>48.0876549735211</v>
       </c>
       <c r="R7">
-        <v>42.47840781463745</v>
+        <v>432.7888947616899</v>
       </c>
       <c r="S7">
-        <v>0.008529770570907612</v>
+        <v>0.008782030141287566</v>
       </c>
       <c r="T7">
-        <v>0.008529770570907612</v>
+        <v>0.008782030141287565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H8">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N8">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q8">
-        <v>533.8298348750058</v>
+        <v>537.0343270818948</v>
       </c>
       <c r="R8">
-        <v>533.8298348750058</v>
+        <v>4833.308943737055</v>
       </c>
       <c r="S8">
-        <v>0.1071943664945992</v>
+        <v>0.09807614137009249</v>
       </c>
       <c r="T8">
-        <v>0.1071943664945992</v>
+        <v>0.09807614137009245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H9">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N9">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q9">
-        <v>62.10671495037861</v>
+        <v>62.69357200209831</v>
       </c>
       <c r="R9">
-        <v>62.10671495037861</v>
+        <v>564.2421480188849</v>
       </c>
       <c r="S9">
-        <v>0.0124711837541364</v>
+        <v>0.0114494424668988</v>
       </c>
       <c r="T9">
-        <v>0.0124711837541364</v>
+        <v>0.01144944246689879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H10">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N10">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q10">
-        <v>85.84508632707482</v>
+        <v>86.58631377099999</v>
       </c>
       <c r="R10">
-        <v>85.84508632707482</v>
+        <v>779.2768239389999</v>
       </c>
       <c r="S10">
-        <v>0.01723790812040246</v>
+        <v>0.01581286543872043</v>
       </c>
       <c r="T10">
-        <v>0.01723790812040246</v>
+        <v>0.01581286543872043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H11">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N11">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O11">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P11">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q11">
-        <v>79.14843382742482</v>
+        <v>87.18186882716444</v>
       </c>
       <c r="R11">
-        <v>79.14843382742482</v>
+        <v>784.6368194444799</v>
       </c>
       <c r="S11">
-        <v>0.01589320354332963</v>
+        <v>0.015921628955197</v>
       </c>
       <c r="T11">
-        <v>0.01589320354332963</v>
+        <v>0.015921628955197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H12">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N12">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O12">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P12">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q12">
-        <v>0.5153945494865102</v>
+        <v>1.024570124400667</v>
       </c>
       <c r="R12">
-        <v>0.5153945494865102</v>
+        <v>9.221131119606</v>
       </c>
       <c r="S12">
-        <v>0.0001034925150631789</v>
+        <v>0.0001871125909405219</v>
       </c>
       <c r="T12">
-        <v>0.0001034925150631789</v>
+        <v>0.0001871125909405218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H13">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N13">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P13">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q13">
-        <v>6.477008000122238</v>
+        <v>11.442215837073</v>
       </c>
       <c r="R13">
-        <v>6.477008000122238</v>
+        <v>102.979942533657</v>
       </c>
       <c r="S13">
-        <v>0.001300599412013234</v>
+        <v>0.002089639938142635</v>
       </c>
       <c r="T13">
-        <v>0.001300599412013234</v>
+        <v>0.002089639938142635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H14">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N14">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O14">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P14">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q14">
-        <v>0.7535466609675396</v>
+        <v>1.335768211211</v>
       </c>
       <c r="R14">
-        <v>0.7535466609675396</v>
+        <v>12.021913900899</v>
       </c>
       <c r="S14">
-        <v>0.0001513140549093689</v>
+        <v>0.0002439452848987579</v>
       </c>
       <c r="T14">
-        <v>0.0001513140549093689</v>
+        <v>0.0002439452848987578</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H15">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N15">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O15">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P15">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q15">
-        <v>1.04156657156833</v>
+        <v>1.8448341954</v>
       </c>
       <c r="R15">
-        <v>1.04156657156833</v>
+        <v>16.6035077586</v>
       </c>
       <c r="S15">
-        <v>0.0002091491735889232</v>
+        <v>0.0003369136947643194</v>
       </c>
       <c r="T15">
-        <v>0.0002091491735889232</v>
+        <v>0.0003369136947643193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H16">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N16">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O16">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P16">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q16">
-        <v>0.9603154518656868</v>
+        <v>1.857523271594667</v>
       </c>
       <c r="R16">
-        <v>0.9603154518656868</v>
+        <v>16.717709444352</v>
       </c>
       <c r="S16">
-        <v>0.0001928337454608924</v>
+        <v>0.0003392310431496382</v>
       </c>
       <c r="T16">
-        <v>0.0001928337454608924</v>
+        <v>0.0003392310431496381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H17">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N17">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O17">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P17">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q17">
-        <v>53.68311786813683</v>
+        <v>0.8177062985626666</v>
       </c>
       <c r="R17">
-        <v>53.68311786813683</v>
+        <v>7.359356687064</v>
       </c>
       <c r="S17">
-        <v>0.01077970438403322</v>
+        <v>0.0001493339894543044</v>
       </c>
       <c r="T17">
-        <v>0.01077970438403322</v>
+        <v>0.0001493339894543044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H18">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N18">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O18">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P18">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q18">
-        <v>674.6403978269624</v>
+        <v>9.131997641411999</v>
       </c>
       <c r="R18">
-        <v>674.6403978269624</v>
+        <v>82.18797877270799</v>
       </c>
       <c r="S18">
-        <v>0.1354694798458736</v>
+        <v>0.001667735275949866</v>
       </c>
       <c r="T18">
-        <v>0.1354694798458736</v>
+        <v>0.001667735275949865</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H19">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N19">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O19">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P19">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q19">
-        <v>78.48886694701099</v>
+        <v>1.066072544684</v>
       </c>
       <c r="R19">
-        <v>78.48886694701099</v>
+        <v>9.594652902156</v>
       </c>
       <c r="S19">
-        <v>0.01576076086349452</v>
+        <v>0.0001946919895630022</v>
       </c>
       <c r="T19">
-        <v>0.01576076086349452</v>
+        <v>0.0001946919895630022</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H20">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N20">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O20">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P20">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q20">
-        <v>108.4888093689034</v>
+        <v>1.4723565576</v>
       </c>
       <c r="R20">
-        <v>108.4888093689034</v>
+        <v>13.2512090184</v>
       </c>
       <c r="S20">
-        <v>0.02178482436219759</v>
+        <v>0.0002688897945779537</v>
       </c>
       <c r="T20">
-        <v>0.02178482436219759</v>
+        <v>0.0002688897945779536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.191908</v>
+      </c>
+      <c r="H21">
+        <v>0.575724</v>
+      </c>
+      <c r="I21">
+        <v>0.002551390312817814</v>
+      </c>
+      <c r="J21">
+        <v>0.002551390312817813</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.724970666666667</v>
+      </c>
+      <c r="N21">
+        <v>23.174912</v>
+      </c>
+      <c r="O21">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="P21">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="Q21">
+        <v>1.482483670698667</v>
+      </c>
+      <c r="R21">
+        <v>13.342353036288</v>
+      </c>
+      <c r="S21">
+        <v>0.0002707392632726881</v>
+      </c>
+      <c r="T21">
+        <v>0.0002707392632726881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H22">
+        <v>48.726854</v>
+      </c>
+      <c r="I22">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J22">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.260928666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.782786</v>
+      </c>
+      <c r="O22">
+        <v>0.05853043679913345</v>
+      </c>
+      <c r="P22">
+        <v>0.05853043679913345</v>
+      </c>
+      <c r="Q22">
+        <v>69.20721634836045</v>
+      </c>
+      <c r="R22">
+        <v>622.8649471352439</v>
+      </c>
+      <c r="S22">
+        <v>0.01263899976616822</v>
+      </c>
+      <c r="T22">
+        <v>0.01263899976616821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H23">
+        <v>48.726854</v>
+      </c>
+      <c r="I23">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J23">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.585289</v>
+      </c>
+      <c r="N23">
+        <v>142.755867</v>
+      </c>
+      <c r="O23">
+        <v>0.6536574461270807</v>
+      </c>
+      <c r="P23">
+        <v>0.6536574461270805</v>
+      </c>
+      <c r="Q23">
+        <v>772.8938098836019</v>
+      </c>
+      <c r="R23">
+        <v>6956.044288952417</v>
+      </c>
+      <c r="S23">
+        <v>0.1411500880662589</v>
+      </c>
+      <c r="T23">
+        <v>0.1411500880662588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H24">
+        <v>48.726854</v>
+      </c>
+      <c r="I24">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J24">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.555122999999999</v>
+      </c>
+      <c r="N24">
+        <v>16.665369</v>
+      </c>
+      <c r="O24">
+        <v>0.07630819502014176</v>
+      </c>
+      <c r="P24">
+        <v>0.07630819502014174</v>
+      </c>
+      <c r="Q24">
+        <v>90.22788912434731</v>
+      </c>
+      <c r="R24">
+        <v>812.0510021191259</v>
+      </c>
+      <c r="S24">
+        <v>0.01647790981513005</v>
+      </c>
+      <c r="T24">
+        <v>0.01647790981513004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="H21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="I21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="J21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.01492483899505</v>
-      </c>
-      <c r="N21">
-        <v>7.01492483899505</v>
-      </c>
-      <c r="O21">
-        <v>0.09851580611235186</v>
-      </c>
-      <c r="P21">
-        <v>0.09851580611235186</v>
-      </c>
-      <c r="Q21">
-        <v>100.0257523958314</v>
-      </c>
-      <c r="R21">
-        <v>100.0257523958314</v>
-      </c>
-      <c r="S21">
-        <v>0.02008542134728635</v>
-      </c>
-      <c r="T21">
-        <v>0.02008542134728635</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H25">
+        <v>48.726854</v>
+      </c>
+      <c r="I25">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J25">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.6722</v>
+      </c>
+      <c r="N25">
+        <v>23.0166</v>
+      </c>
+      <c r="O25">
+        <v>0.1053895177178852</v>
+      </c>
+      <c r="P25">
+        <v>0.1053895177178852</v>
+      </c>
+      <c r="Q25">
+        <v>124.6140564196</v>
+      </c>
+      <c r="R25">
+        <v>1121.5265077764</v>
+      </c>
+      <c r="S25">
+        <v>0.02275769945753511</v>
+      </c>
+      <c r="T25">
+        <v>0.0227576994575351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H26">
+        <v>48.726854</v>
+      </c>
+      <c r="I26">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J26">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.724970666666667</v>
+      </c>
+      <c r="N26">
+        <v>23.174912</v>
+      </c>
+      <c r="O26">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="P26">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="Q26">
+        <v>125.4711726096498</v>
+      </c>
+      <c r="R26">
+        <v>1129.240553486848</v>
+      </c>
+      <c r="S26">
+        <v>0.02291423069657655</v>
+      </c>
+      <c r="T26">
+        <v>0.02291423069657654</v>
       </c>
     </row>
   </sheetData>
